--- a/Code/Results/Cases/Case_4_224/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_224/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.98248350817479</v>
+        <v>12.51331208847585</v>
       </c>
       <c r="C2">
-        <v>6.721088124946688</v>
+        <v>6.912263319083058</v>
       </c>
       <c r="D2">
-        <v>7.037720140755074</v>
+        <v>6.010673508816727</v>
       </c>
       <c r="E2">
-        <v>7.534859199042386</v>
+        <v>11.2908506909073</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.111287793266698</v>
+        <v>3.677292287183406</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>18.14109536960978</v>
+        <v>27.07832644793021</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.64217618941982</v>
+        <v>10.07852797806205</v>
       </c>
       <c r="L2">
-        <v>6.955458050827945</v>
+        <v>9.922229151393081</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.16574804790619</v>
+        <v>27.76632933286209</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.03713390413065</v>
+        <v>12.27345099989719</v>
       </c>
       <c r="C3">
-        <v>6.548186092423712</v>
+        <v>6.85066907514227</v>
       </c>
       <c r="D3">
-        <v>6.550690345621783</v>
+        <v>5.896362037508655</v>
       </c>
       <c r="E3">
-        <v>7.422403397607402</v>
+        <v>11.30014276568276</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.11695187123349</v>
+        <v>3.679400724005145</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>18.19772407167975</v>
+        <v>27.15935734365117</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.95471094230441</v>
+        <v>9.912143914538737</v>
       </c>
       <c r="L3">
-        <v>6.750573374892967</v>
+        <v>9.909755547017784</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>19.09020020742767</v>
+        <v>27.8309406438944</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.42277160775807</v>
+        <v>12.12626420580782</v>
       </c>
       <c r="C4">
-        <v>6.439422283402664</v>
+        <v>6.811950908263359</v>
       </c>
       <c r="D4">
-        <v>6.251817795712652</v>
+        <v>5.82681724138734</v>
       </c>
       <c r="E4">
-        <v>7.356968825031126</v>
+        <v>11.30780336865601</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.120535713315709</v>
+        <v>3.680764141029002</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>18.24586738367312</v>
+        <v>27.2140637953306</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.51040982100822</v>
+        <v>9.810410113506169</v>
       </c>
       <c r="L4">
-        <v>6.625440789091614</v>
+        <v>9.903850147134868</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>19.0590032314224</v>
+        <v>27.87623621159289</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.16383004501202</v>
+        <v>12.06639090309262</v>
       </c>
       <c r="C5">
-        <v>6.39447250084535</v>
+        <v>6.795952744753104</v>
       </c>
       <c r="D5">
-        <v>6.139628647453445</v>
+        <v>5.798681945716044</v>
       </c>
       <c r="E5">
-        <v>7.331221899044958</v>
+        <v>11.31141702323004</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.12202351743239</v>
+        <v>3.681337107284234</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>18.26871474885519</v>
+        <v>27.23760076930635</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.32380219768993</v>
+        <v>9.769113475634041</v>
       </c>
       <c r="L5">
-        <v>6.574682812848779</v>
+        <v>9.901886704145761</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>19.04997993728749</v>
+        <v>27.89610586979976</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.12031293020893</v>
+        <v>12.05645790708305</v>
       </c>
       <c r="C6">
-        <v>6.386971542163966</v>
+        <v>6.793283135892049</v>
       </c>
       <c r="D6">
-        <v>6.120852741076109</v>
+        <v>5.794023733116425</v>
       </c>
       <c r="E6">
-        <v>7.327002331302173</v>
+        <v>11.31204678138432</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.122272238083147</v>
+        <v>3.681433298189331</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>18.27269967254781</v>
+        <v>27.24158412384024</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.29248202280327</v>
+        <v>9.762267474662064</v>
       </c>
       <c r="L6">
-        <v>6.566270665399101</v>
+        <v>9.901587492320788</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>19.04870061747248</v>
+        <v>27.89949036592662</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.41931426088982</v>
+        <v>12.12545618999523</v>
       </c>
       <c r="C7">
-        <v>6.438818579273371</v>
+        <v>6.811736035175131</v>
       </c>
       <c r="D7">
-        <v>6.250314697222727</v>
+        <v>5.82643691269268</v>
       </c>
       <c r="E7">
-        <v>7.356617864344458</v>
+        <v>11.30785011177926</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.120555666700282</v>
+        <v>3.680771797877935</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>18.24616261378856</v>
+        <v>27.21437619022705</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.50791559231234</v>
+        <v>9.809852451059808</v>
       </c>
       <c r="L7">
-        <v>6.624755209087163</v>
+        <v>9.903821870925338</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>19.05886677447084</v>
+        <v>27.87649847021361</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.66353162403137</v>
+        <v>12.43063953578097</v>
       </c>
       <c r="C8">
-        <v>6.662026385933505</v>
+        <v>6.891215716808732</v>
       </c>
       <c r="D8">
-        <v>6.873245291212948</v>
+        <v>5.971151240928883</v>
       </c>
       <c r="E8">
-        <v>7.495340726115458</v>
+        <v>11.29364897150953</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.113219174756783</v>
+        <v>3.678005024238602</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>18.15776367163729</v>
+        <v>27.10523677355583</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.40975801336774</v>
+        <v>10.02110210488156</v>
       </c>
       <c r="L8">
-        <v>6.884714284677512</v>
+        <v>9.917565689362135</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>19.13646946350413</v>
+        <v>27.78743841102485</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.83694167102973</v>
+        <v>13.02620325388184</v>
       </c>
       <c r="C9">
-        <v>7.078089719354833</v>
+        <v>7.039690231349217</v>
       </c>
       <c r="D9">
-        <v>7.997255882969191</v>
+        <v>6.258166287298322</v>
       </c>
       <c r="E9">
-        <v>7.795548600908209</v>
+        <v>11.28129950215859</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.099641179486932</v>
+        <v>3.67312298691316</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>18.09668577905403</v>
+        <v>26.93059715896635</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.00157457838993</v>
+        <v>10.43643056774162</v>
       </c>
       <c r="L9">
-        <v>7.397056430772018</v>
+        <v>9.958325000708806</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.41479623698958</v>
+        <v>27.65753530248218</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.27498304636806</v>
+        <v>13.45734344318468</v>
       </c>
       <c r="C10">
-        <v>7.369459790711942</v>
+        <v>7.143946235302605</v>
       </c>
       <c r="D10">
-        <v>8.745292772817381</v>
+        <v>6.468563476636622</v>
       </c>
       <c r="E10">
-        <v>8.032543894856904</v>
+        <v>11.28164801966347</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.090109940158834</v>
+        <v>3.669864011970881</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>18.12891861265604</v>
+        <v>26.82640665298305</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.06342959316585</v>
+        <v>10.73919152387102</v>
       </c>
       <c r="L10">
-        <v>7.771733078157346</v>
+        <v>9.996531418342224</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>19.7036053311935</v>
+        <v>27.58952486286319</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.89554485550469</v>
+        <v>13.65116375375089</v>
       </c>
       <c r="C11">
-        <v>7.498733712519612</v>
+        <v>7.19025976018058</v>
       </c>
       <c r="D11">
-        <v>9.069211196717239</v>
+        <v>6.563685184763663</v>
       </c>
       <c r="E11">
-        <v>8.143758760860697</v>
+        <v>11.28384362880539</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.085858943159892</v>
+        <v>3.668451859399855</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>18.1622441637983</v>
+        <v>26.7842665331104</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.52332890650742</v>
+        <v>10.87579471230153</v>
       </c>
       <c r="L11">
-        <v>7.941220911623943</v>
+        <v>10.01566696411986</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.85480737601224</v>
+        <v>27.56456895193388</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.12577248932563</v>
+        <v>13.72415480047029</v>
       </c>
       <c r="C12">
-        <v>7.547205779363204</v>
+        <v>7.207631901482809</v>
       </c>
       <c r="D12">
-        <v>9.189559943035977</v>
+        <v>6.599582058443505</v>
       </c>
       <c r="E12">
-        <v>8.186348310981536</v>
+        <v>11.2849669382473</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.084260379543249</v>
+        <v>3.667927176298742</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>18.17770871473784</v>
+        <v>26.76906678640696</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.69417897578559</v>
+        <v>10.92731245541366</v>
       </c>
       <c r="L12">
-        <v>8.005223846250674</v>
+        <v>10.02316170505496</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>19.91503154656258</v>
+        <v>27.55598086473502</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.07639969916577</v>
+        <v>13.70845397605844</v>
       </c>
       <c r="C13">
-        <v>7.536787986750006</v>
+        <v>7.203897963023707</v>
       </c>
       <c r="D13">
-        <v>9.163742839464536</v>
+        <v>6.591857122640306</v>
       </c>
       <c r="E13">
-        <v>8.177154991045937</v>
+        <v>11.28471205045325</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.084604177518529</v>
+        <v>3.668039729202607</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>18.17424902591758</v>
+        <v>26.77230659103677</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.65752983677209</v>
+        <v>10.91622732898133</v>
       </c>
       <c r="L13">
-        <v>7.991448189686134</v>
+        <v>10.02153658991785</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>19.90192739794126</v>
+        <v>27.55779209009617</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.91458093616303</v>
+        <v>13.65717727947773</v>
       </c>
       <c r="C14">
-        <v>7.502731231129483</v>
+        <v>7.191692331577398</v>
       </c>
       <c r="D14">
-        <v>9.079158454892164</v>
+        <v>6.56664113629804</v>
       </c>
       <c r="E14">
-        <v>8.147253191689352</v>
+        <v>11.28393020102485</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.085727209947926</v>
+        <v>3.668408491909449</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>18.16345849348417</v>
+        <v>26.78300084274678</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.53745089507328</v>
+        <v>10.88003760941558</v>
       </c>
       <c r="L14">
-        <v>7.946490259807569</v>
+        <v>10.01627860333447</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>19.85970192879378</v>
+        <v>27.56384511562423</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.81484369110341</v>
+        <v>13.62571405787007</v>
       </c>
       <c r="C15">
-        <v>7.481807563412652</v>
+        <v>7.184194272213107</v>
       </c>
       <c r="D15">
-        <v>9.027048231645789</v>
+        <v>6.551178391588104</v>
       </c>
       <c r="E15">
-        <v>8.128998902539504</v>
+        <v>11.28348927316156</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.086416527013669</v>
+        <v>3.668635679417932</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>18.15722429732651</v>
+        <v>26.78965012381461</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.46346965654587</v>
+        <v>10.85784146920583</v>
       </c>
       <c r="L15">
-        <v>7.918927883960698</v>
+        <v>10.01309018028413</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>19.83422744569065</v>
+        <v>27.56766510104839</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.23375725317113</v>
+        <v>13.44462409053901</v>
       </c>
       <c r="C16">
-        <v>7.360944609944685</v>
+        <v>7.140896646904743</v>
       </c>
       <c r="D16">
-        <v>8.723798093136224</v>
+        <v>6.462331821513922</v>
       </c>
       <c r="E16">
-        <v>8.025342974929259</v>
+        <v>11.2815454366053</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.090389375623661</v>
+        <v>3.669957711156691</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>18.12712997331105</v>
+        <v>26.82926655086017</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.0329102930717</v>
+        <v>10.7302373011104</v>
       </c>
       <c r="L16">
-        <v>7.760633772545048</v>
+        <v>9.995315860333392</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>19.69413285375874</v>
+        <v>27.5912763414351</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.86871829659892</v>
+        <v>13.33288724605749</v>
       </c>
       <c r="C17">
-        <v>7.285952464623641</v>
+        <v>7.114045753479531</v>
       </c>
       <c r="D17">
-        <v>8.533600831289768</v>
+        <v>6.407648125240321</v>
       </c>
       <c r="E17">
-        <v>7.962614699925267</v>
+        <v>11.28087400396029</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.092847622799987</v>
+        <v>3.670786722286215</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>18.11356193078534</v>
+        <v>26.8549176829118</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.76286341894713</v>
+        <v>10.65163259548866</v>
       </c>
       <c r="L17">
-        <v>7.663249616190846</v>
+        <v>9.984858781156493</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>19.61335040187286</v>
+        <v>27.60729475764253</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.65558978157289</v>
+        <v>13.26840606766382</v>
       </c>
       <c r="C18">
-        <v>7.242511440225774</v>
+        <v>7.098497397547875</v>
       </c>
       <c r="D18">
-        <v>8.422661242656678</v>
+        <v>6.376142276706967</v>
       </c>
       <c r="E18">
-        <v>7.926856349251319</v>
+        <v>11.28067962509579</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.094269588251605</v>
+        <v>3.671270174276335</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>18.10750476297594</v>
+        <v>26.87016620932582</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.60535928065377</v>
+        <v>10.60631823859732</v>
       </c>
       <c r="L18">
-        <v>7.607149040426879</v>
+        <v>9.9790096083813</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>19.56874539731931</v>
+        <v>27.61707112008392</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.58288204917176</v>
+        <v>13.24653952971994</v>
       </c>
       <c r="C19">
-        <v>7.227750617888505</v>
+        <v>7.093215232018048</v>
       </c>
       <c r="D19">
-        <v>8.384832732028004</v>
+        <v>6.365467014203376</v>
       </c>
       <c r="E19">
-        <v>7.914804829652384</v>
+        <v>11.28064678479234</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.094752452658371</v>
+        <v>3.671435002514517</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>18.10574905615715</v>
+        <v>26.87541399976844</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.55165598824384</v>
+        <v>10.5909594200972</v>
       </c>
       <c r="L19">
-        <v>7.588140635041883</v>
+        <v>9.977057711030415</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>19.55395856082945</v>
+        <v>27.62047785999921</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.90790468758809</v>
+        <v>13.34480441851544</v>
       </c>
       <c r="C20">
-        <v>7.293967422239748</v>
+        <v>7.116914927240016</v>
       </c>
       <c r="D20">
-        <v>8.554007070491963</v>
+        <v>6.413475095949826</v>
       </c>
       <c r="E20">
-        <v>7.969259088372099</v>
+        <v>11.28092563442271</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.092585112403934</v>
+        <v>3.670697787166454</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>18.1148243240359</v>
+        <v>26.85213586517338</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.79183587045904</v>
+        <v>10.6600112253309</v>
       </c>
       <c r="L20">
-        <v>7.673625730604333</v>
+        <v>9.985954857560793</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.62175658209278</v>
+        <v>27.60553128739419</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.96223981663419</v>
+        <v>13.67225002496236</v>
       </c>
       <c r="C21">
-        <v>7.512747652945809</v>
+        <v>7.195281965696074</v>
       </c>
       <c r="D21">
-        <v>9.10406534980625</v>
+        <v>6.574051339066951</v>
       </c>
       <c r="E21">
-        <v>8.156023298487437</v>
+        <v>11.28415193678078</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.085397052542593</v>
+        <v>3.668299904512582</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>18.16654942762271</v>
+        <v>26.77983910054487</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.57281042892942</v>
+        <v>10.89067351313733</v>
       </c>
       <c r="L21">
-        <v>7.959700631355969</v>
+        <v>10.01781628880554</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.87202312705303</v>
+        <v>27.56204378229248</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.62356420004456</v>
+        <v>13.88386616238892</v>
       </c>
       <c r="C22">
-        <v>7.652926026644022</v>
+        <v>7.245530480096554</v>
       </c>
       <c r="D22">
-        <v>9.450103986080535</v>
+        <v>6.678259834861668</v>
       </c>
       <c r="E22">
-        <v>8.280846580435638</v>
+        <v>11.28796120946788</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.08076398661799</v>
+        <v>3.666791412760139</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>18.21701351862733</v>
+        <v>26.73700685497845</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.06398119392381</v>
+        <v>11.04017399849958</v>
       </c>
       <c r="L22">
-        <v>8.14561273161684</v>
+        <v>10.04008618155674</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.05293418727695</v>
+        <v>27.53864828002277</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.27311854455988</v>
+        <v>13.77116413246923</v>
       </c>
       <c r="C23">
-        <v>7.578369705835594</v>
+        <v>7.218802408498176</v>
       </c>
       <c r="D23">
-        <v>9.266633703814822</v>
+        <v>6.622721609787948</v>
       </c>
       <c r="E23">
-        <v>8.213977876388991</v>
+        <v>11.28577290353239</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.083231165806138</v>
+        <v>3.667591172229045</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>18.18850169417564</v>
+        <v>26.75946239032035</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.80358494935394</v>
+        <v>10.96051290288124</v>
       </c>
       <c r="L23">
-        <v>8.046496297163117</v>
+        <v>10.02806930710425</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.95475344281008</v>
+        <v>27.55067445407883</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.8901986880527</v>
+        <v>13.33941741360189</v>
       </c>
       <c r="C24">
-        <v>7.290344877709871</v>
+        <v>7.115618120418196</v>
       </c>
       <c r="D24">
-        <v>8.544786373610155</v>
+        <v>6.41084092965815</v>
       </c>
       <c r="E24">
-        <v>7.966254209311191</v>
+        <v>11.28090169529244</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.092703766223053</v>
+        <v>3.670737973416718</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>18.11424817829777</v>
+        <v>26.85339196340655</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.77874443698258</v>
+        <v>10.65622362756709</v>
       </c>
       <c r="L24">
-        <v>7.668935038439127</v>
+        <v>9.9854588142097</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.61795043225001</v>
+        <v>27.60632678572559</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.27713138563833</v>
+        <v>12.86588994426389</v>
       </c>
       <c r="C25">
-        <v>6.967978050979435</v>
+        <v>7.000348643507673</v>
       </c>
       <c r="D25">
-        <v>7.707004737533008</v>
+        <v>6.180432145055921</v>
       </c>
       <c r="E25">
-        <v>7.711391314933155</v>
+        <v>11.28298325937814</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.103232632907192</v>
+        <v>3.67438587827094</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>18.1003067815697</v>
+        <v>26.97361414723076</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.58989377213854</v>
+        <v>10.32427710478484</v>
       </c>
       <c r="L25">
-        <v>7.258541343603768</v>
+        <v>9.945835383544514</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.32521470297588</v>
+        <v>27.68787070493528</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_224/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_224/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.51331208847585</v>
+        <v>13.98248350817493</v>
       </c>
       <c r="C2">
-        <v>6.912263319083058</v>
+        <v>6.721088124946442</v>
       </c>
       <c r="D2">
-        <v>6.010673508816727</v>
+        <v>7.037720140755123</v>
       </c>
       <c r="E2">
-        <v>11.2908506909073</v>
+        <v>7.534859199042403</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.677292287183406</v>
+        <v>2.111287793266964</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>27.07832644793021</v>
+        <v>18.14109536960949</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.07852797806205</v>
+        <v>11.64217618941989</v>
       </c>
       <c r="L2">
-        <v>9.922229151393081</v>
+        <v>6.955458050827988</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>27.76632933286209</v>
+        <v>19.16574804790597</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.27345099989719</v>
+        <v>13.03713390413066</v>
       </c>
       <c r="C3">
-        <v>6.85066907514227</v>
+        <v>6.548186092423819</v>
       </c>
       <c r="D3">
-        <v>5.896362037508655</v>
+        <v>6.550690345621703</v>
       </c>
       <c r="E3">
-        <v>11.30014276568276</v>
+        <v>7.422403397607415</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.679400724005145</v>
+        <v>2.116951871233356</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>27.15935734365117</v>
+        <v>18.19772407167969</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.912143914538737</v>
+        <v>10.95471094230444</v>
       </c>
       <c r="L3">
-        <v>9.909755547017784</v>
+        <v>6.75057337489295</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>27.8309406438944</v>
+        <v>19.09020020742757</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.12626420580782</v>
+        <v>12.42277160775803</v>
       </c>
       <c r="C4">
-        <v>6.811950908263359</v>
+        <v>6.439422283402636</v>
       </c>
       <c r="D4">
-        <v>5.82681724138734</v>
+        <v>6.251817795712696</v>
       </c>
       <c r="E4">
-        <v>11.30780336865601</v>
+        <v>7.356968825031031</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.680764141029002</v>
+        <v>2.12053571331571</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>27.2140637953306</v>
+        <v>18.24586738367332</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.810410113506169</v>
+        <v>10.51040982100817</v>
       </c>
       <c r="L4">
-        <v>9.903850147134868</v>
+        <v>6.625440789091559</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>27.87623621159289</v>
+        <v>19.05900323142259</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.06639090309262</v>
+        <v>12.16383004501196</v>
       </c>
       <c r="C5">
-        <v>6.795952744753104</v>
+        <v>6.394472500845584</v>
       </c>
       <c r="D5">
-        <v>5.798681945716044</v>
+        <v>6.139628647453506</v>
       </c>
       <c r="E5">
-        <v>11.31141702323004</v>
+        <v>7.331221899044962</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.681337107284234</v>
+        <v>2.122023517432122</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>27.23760076930635</v>
+        <v>18.26871474885526</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.769113475634041</v>
+        <v>10.32380219768989</v>
       </c>
       <c r="L5">
-        <v>9.901886704145761</v>
+        <v>6.574682812848716</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>27.89610586979976</v>
+        <v>19.04997993728753</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.05645790708305</v>
+        <v>12.12031293020891</v>
       </c>
       <c r="C6">
-        <v>6.793283135892049</v>
+        <v>6.386971542164092</v>
       </c>
       <c r="D6">
-        <v>5.794023733116425</v>
+        <v>6.120852741076109</v>
       </c>
       <c r="E6">
-        <v>11.31204678138432</v>
+        <v>7.327002331302111</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.681433298189331</v>
+        <v>2.122272238082878</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>27.24158412384024</v>
+        <v>18.272699672548</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.762267474662064</v>
+        <v>10.2924820228032</v>
       </c>
       <c r="L6">
-        <v>9.901587492320788</v>
+        <v>6.566270665399059</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>27.89949036592662</v>
+        <v>19.04870061747265</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.12545618999523</v>
+        <v>12.41931426088988</v>
       </c>
       <c r="C7">
-        <v>6.811736035175131</v>
+        <v>6.438818579272887</v>
       </c>
       <c r="D7">
-        <v>5.82643691269268</v>
+        <v>6.250314697222721</v>
       </c>
       <c r="E7">
-        <v>11.30785011177926</v>
+        <v>7.356617864344214</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.680771797877935</v>
+        <v>2.120555666699479</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>27.21437619022705</v>
+        <v>18.24616261378846</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.809852451059808</v>
+        <v>10.50791559231229</v>
       </c>
       <c r="L7">
-        <v>9.903821870925338</v>
+        <v>6.624755209087148</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>27.87649847021361</v>
+        <v>19.05886677447082</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.43063953578097</v>
+        <v>13.66353162403146</v>
       </c>
       <c r="C8">
-        <v>6.891215716808732</v>
+        <v>6.662026385933373</v>
       </c>
       <c r="D8">
-        <v>5.971151240928883</v>
+        <v>6.873245291213022</v>
       </c>
       <c r="E8">
-        <v>11.29364897150953</v>
+        <v>7.495340726115439</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.678005024238602</v>
+        <v>2.113219174756515</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>27.10523677355583</v>
+        <v>18.15776367163708</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.02110210488156</v>
+        <v>11.4097580133678</v>
       </c>
       <c r="L8">
-        <v>9.917565689362135</v>
+        <v>6.8847142846775</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>27.78743841102485</v>
+        <v>19.13646946350398</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.02620325388184</v>
+        <v>15.83694167102979</v>
       </c>
       <c r="C9">
-        <v>7.039690231349217</v>
+        <v>7.078089719354701</v>
       </c>
       <c r="D9">
-        <v>6.258166287298322</v>
+        <v>7.997255882969221</v>
       </c>
       <c r="E9">
-        <v>11.28129950215859</v>
+        <v>7.795548600908233</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.67312298691316</v>
+        <v>2.099641179486931</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>26.93059715896635</v>
+        <v>18.09668577905389</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.43643056774162</v>
+        <v>13.00157457838994</v>
       </c>
       <c r="L9">
-        <v>9.958325000708806</v>
+        <v>7.397056430772055</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>27.65753530248218</v>
+        <v>19.41479623698948</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.45734344318468</v>
+        <v>17.27498304636806</v>
       </c>
       <c r="C10">
-        <v>7.143946235302605</v>
+        <v>7.369459790712177</v>
       </c>
       <c r="D10">
-        <v>6.468563476636622</v>
+        <v>8.745292772817281</v>
       </c>
       <c r="E10">
-        <v>11.28164801966347</v>
+        <v>8.032543894856822</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.669864011970881</v>
+        <v>2.090109940159099</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>26.82640665298305</v>
+        <v>18.12891861265598</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.73919152387102</v>
+        <v>14.06342959316586</v>
       </c>
       <c r="L10">
-        <v>9.996531418342224</v>
+        <v>7.771733078157263</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>27.58952486286319</v>
+        <v>19.70360533119342</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.65116375375089</v>
+        <v>17.89554485550466</v>
       </c>
       <c r="C11">
-        <v>7.19025976018058</v>
+        <v>7.49873371251975</v>
       </c>
       <c r="D11">
-        <v>6.563685184763663</v>
+        <v>9.06921119671728</v>
       </c>
       <c r="E11">
-        <v>11.28384362880539</v>
+        <v>8.143758760860662</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.668451859399855</v>
+        <v>2.085858943159756</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>26.7842665331104</v>
+        <v>18.16224416379833</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.87579471230153</v>
+        <v>14.52332890650742</v>
       </c>
       <c r="L11">
-        <v>10.01566696411986</v>
+        <v>7.941220911623903</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>27.56456895193388</v>
+        <v>19.85480737601224</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.72415480047029</v>
+        <v>18.12577248932563</v>
       </c>
       <c r="C12">
-        <v>7.207631901482809</v>
+        <v>7.547205779363407</v>
       </c>
       <c r="D12">
-        <v>6.599582058443505</v>
+        <v>9.189559943035929</v>
       </c>
       <c r="E12">
-        <v>11.2849669382473</v>
+        <v>8.186348310981536</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.667927176298742</v>
+        <v>2.084260379542981</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>26.76906678640696</v>
+        <v>18.17770871473793</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.92731245541366</v>
+        <v>14.69417897578565</v>
       </c>
       <c r="L12">
-        <v>10.02316170505496</v>
+        <v>8.005223846250658</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>27.55598086473502</v>
+        <v>19.91503154656261</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.70845397605844</v>
+        <v>18.07639969916585</v>
       </c>
       <c r="C13">
-        <v>7.203897963023707</v>
+        <v>7.536787986750096</v>
       </c>
       <c r="D13">
-        <v>6.591857122640306</v>
+        <v>9.163742839464584</v>
       </c>
       <c r="E13">
-        <v>11.28471205045325</v>
+        <v>8.177154991045867</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.668039729202607</v>
+        <v>2.084604177518397</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>26.77230659103677</v>
+        <v>18.17424902591738</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.91622732898133</v>
+        <v>14.65752983677214</v>
       </c>
       <c r="L13">
-        <v>10.02153658991785</v>
+        <v>7.991448189686104</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>27.55779209009617</v>
+        <v>19.90192739794105</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.65717727947773</v>
+        <v>17.9145809361631</v>
       </c>
       <c r="C14">
-        <v>7.191692331577398</v>
+        <v>7.50273123112935</v>
       </c>
       <c r="D14">
-        <v>6.56664113629804</v>
+        <v>9.079158454892221</v>
       </c>
       <c r="E14">
-        <v>11.28393020102485</v>
+        <v>8.147253191689321</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.668408491909449</v>
+        <v>2.08572720994766</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>26.78300084274678</v>
+        <v>18.16345849348408</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.88003760941558</v>
+        <v>14.53745089507335</v>
       </c>
       <c r="L14">
-        <v>10.01627860333447</v>
+        <v>7.946490259807574</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>27.56384511562423</v>
+        <v>19.85970192879374</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.62571405787007</v>
+        <v>17.81484369110341</v>
       </c>
       <c r="C15">
-        <v>7.184194272213107</v>
+        <v>7.481807563412754</v>
       </c>
       <c r="D15">
-        <v>6.551178391588104</v>
+        <v>9.027048231645766</v>
       </c>
       <c r="E15">
-        <v>11.28348927316156</v>
+        <v>8.128998902539545</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.668635679417932</v>
+        <v>2.086416527014069</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>26.78965012381461</v>
+        <v>18.15722429732649</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.85784146920583</v>
+        <v>14.46346965654589</v>
       </c>
       <c r="L15">
-        <v>10.01309018028413</v>
+        <v>7.918927883960664</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>27.56766510104839</v>
+        <v>19.83422744569058</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.44462409053901</v>
+        <v>17.23375725317116</v>
       </c>
       <c r="C16">
-        <v>7.140896646904743</v>
+        <v>7.360944609944692</v>
       </c>
       <c r="D16">
-        <v>6.462331821513922</v>
+        <v>8.723798093136189</v>
       </c>
       <c r="E16">
-        <v>11.2815454366053</v>
+        <v>8.025342974929199</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.669957711156691</v>
+        <v>2.090389375623527</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>26.82926655086017</v>
+        <v>18.127129973311</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.7302373011104</v>
+        <v>14.03291029307176</v>
       </c>
       <c r="L16">
-        <v>9.995315860333392</v>
+        <v>7.760633772544995</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>27.5912763414351</v>
+        <v>19.69413285375867</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.33288724605749</v>
+        <v>16.86871829659896</v>
       </c>
       <c r="C17">
-        <v>7.114045753479531</v>
+        <v>7.285952464623426</v>
       </c>
       <c r="D17">
-        <v>6.407648125240321</v>
+        <v>8.533600831289723</v>
       </c>
       <c r="E17">
-        <v>11.28087400396029</v>
+        <v>7.962614699925232</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.670786722286215</v>
+        <v>2.092847622799986</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>26.8549176829118</v>
+        <v>18.11356193078548</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.65163259548866</v>
+        <v>13.76286341894716</v>
       </c>
       <c r="L17">
-        <v>9.984858781156493</v>
+        <v>7.663249616190818</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>27.60729475764253</v>
+        <v>19.61335040187297</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.26840606766382</v>
+        <v>16.65558978157292</v>
       </c>
       <c r="C18">
-        <v>7.098497397547875</v>
+        <v>7.242511440225874</v>
       </c>
       <c r="D18">
-        <v>6.376142276706967</v>
+        <v>8.422661242656687</v>
       </c>
       <c r="E18">
-        <v>11.28067962509579</v>
+        <v>7.926856349251307</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.671270174276335</v>
+        <v>2.094269588251738</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>26.87016620932582</v>
+        <v>18.10750476297583</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.60631823859732</v>
+        <v>13.60535928065383</v>
       </c>
       <c r="L18">
-        <v>9.9790096083813</v>
+        <v>7.607149040426882</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>27.61707112008392</v>
+        <v>19.56874539731923</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.24653952971994</v>
+        <v>16.58288204917173</v>
       </c>
       <c r="C19">
-        <v>7.093215232018048</v>
+        <v>7.22775061788851</v>
       </c>
       <c r="D19">
-        <v>6.365467014203376</v>
+        <v>8.384832732028004</v>
       </c>
       <c r="E19">
-        <v>11.28064678479234</v>
+        <v>7.914804829652409</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.671435002514517</v>
+        <v>2.094752452658237</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>26.87541399976844</v>
+        <v>18.10574905615711</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.5909594200972</v>
+        <v>13.5516559882438</v>
       </c>
       <c r="L19">
-        <v>9.977057711030415</v>
+        <v>7.588140635041903</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>27.62047785999921</v>
+        <v>19.55395856082939</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.34480441851544</v>
+        <v>16.90790468758808</v>
       </c>
       <c r="C20">
-        <v>7.116914927240016</v>
+        <v>7.293967422240062</v>
       </c>
       <c r="D20">
-        <v>6.413475095949826</v>
+        <v>8.554007070491949</v>
       </c>
       <c r="E20">
-        <v>11.28092563442271</v>
+        <v>7.969259088372067</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.670697787166454</v>
+        <v>2.092585112403934</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>26.85213586517338</v>
+        <v>18.11482432403586</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.6600112253309</v>
+        <v>13.79183587045906</v>
       </c>
       <c r="L20">
-        <v>9.985954857560793</v>
+        <v>7.673625730604271</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>27.60553128739419</v>
+        <v>19.62175658209268</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.67225002496236</v>
+        <v>17.96223981663415</v>
       </c>
       <c r="C21">
-        <v>7.195281965696074</v>
+        <v>7.512747652945773</v>
       </c>
       <c r="D21">
-        <v>6.574051339066951</v>
+        <v>9.104065349806231</v>
       </c>
       <c r="E21">
-        <v>11.28415193678078</v>
+        <v>8.156023298487485</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.668299904512582</v>
+        <v>2.08539705254246</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>26.77983910054487</v>
+        <v>18.16654942762279</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.89067351313733</v>
+        <v>14.57281042892938</v>
       </c>
       <c r="L21">
-        <v>10.01781628880554</v>
+        <v>7.959700631355961</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>27.56204378229248</v>
+        <v>19.8720231270531</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.88386616238892</v>
+        <v>18.62356420004457</v>
       </c>
       <c r="C22">
-        <v>7.245530480096554</v>
+        <v>7.652926026643978</v>
       </c>
       <c r="D22">
-        <v>6.678259834861668</v>
+        <v>9.450103986080544</v>
       </c>
       <c r="E22">
-        <v>11.28796120946788</v>
+        <v>8.280846580435664</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.666791412760139</v>
+        <v>2.080763986617856</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>26.73700685497845</v>
+        <v>18.21701351862726</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.04017399849958</v>
+        <v>15.06398119392383</v>
       </c>
       <c r="L22">
-        <v>10.04008618155674</v>
+        <v>8.145612731616859</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>27.53864828002277</v>
+        <v>20.05293418727692</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.77116413246923</v>
+        <v>18.27311854455991</v>
       </c>
       <c r="C23">
-        <v>7.218802408498176</v>
+        <v>7.578369705835447</v>
       </c>
       <c r="D23">
-        <v>6.622721609787948</v>
+        <v>9.266633703814877</v>
       </c>
       <c r="E23">
-        <v>11.28577290353239</v>
+        <v>8.213977876389036</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.667591172229045</v>
+        <v>2.083231165806137</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>26.75946239032035</v>
+        <v>18.18850169417556</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.96051290288124</v>
+        <v>14.80358494935395</v>
       </c>
       <c r="L23">
-        <v>10.02806930710425</v>
+        <v>8.046496297163113</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>27.55067445407883</v>
+        <v>19.95475344281002</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.33941741360189</v>
+        <v>16.8901986880527</v>
       </c>
       <c r="C24">
-        <v>7.115618120418196</v>
+        <v>7.290344877709752</v>
       </c>
       <c r="D24">
-        <v>6.41084092965815</v>
+        <v>8.544786373610117</v>
       </c>
       <c r="E24">
-        <v>11.28090169529244</v>
+        <v>7.966254209311146</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.670737973416718</v>
+        <v>2.092703766222921</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>26.85339196340655</v>
+        <v>18.11424817829779</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.65622362756709</v>
+        <v>13.77874443698254</v>
       </c>
       <c r="L24">
-        <v>9.9854588142097</v>
+        <v>7.668935038439121</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>27.60632678572559</v>
+        <v>19.61795043225005</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.86588994426389</v>
+        <v>15.27713138563833</v>
       </c>
       <c r="C25">
-        <v>7.000348643507673</v>
+        <v>6.967978050979435</v>
       </c>
       <c r="D25">
-        <v>6.180432145055921</v>
+        <v>7.707004737533019</v>
       </c>
       <c r="E25">
-        <v>11.28298325937814</v>
+        <v>7.71139131493311</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.67438587827094</v>
+        <v>2.103232632907192</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>26.97361414723076</v>
+        <v>18.10030678156966</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.32427710478484</v>
+        <v>12.58989377213854</v>
       </c>
       <c r="L25">
-        <v>9.945835383544514</v>
+        <v>7.258541343603751</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>27.68787070493528</v>
+        <v>19.32521470297585</v>
       </c>
     </row>
   </sheetData>
